--- a/Resources/aggregate_analysis.xlsx
+++ b/Resources/aggregate_analysis.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakec\Documents\DataAnalyticsBootCamp\Project\Big-Five-Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16299\Documents\Big-Five-Stocks\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C934126-AB6D-4D7E-8145-4410ADFEF858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F30540C-998C-4B58-9063-27CDCC4BFC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregate_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -169,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,27 +741,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scaled Volume Per Company</a:t>
+              <a:t>Scaled Stock Volume By Year</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Per Year</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -768,16 +779,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -808,13 +825,42 @@
             <c:v>AAPL</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -878,13 +924,42 @@
             <c:v>AMZN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -948,13 +1023,42 @@
             <c:v>FB</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1018,13 +1122,45 @@
             <c:v>GOOGL</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1088,13 +1224,45 @@
             <c:v>MSFT</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1159,8 +1327,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="370325264"/>
         <c:axId val="370324624"/>
       </c:barChart>
@@ -1177,11 +1345,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1195,14 +1363,13 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1226,9 +1393,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1254,14 +1421,13 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1280,7 +1446,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1296,14 +1462,13 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1322,17 +1487,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1341,7 +1517,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1375,21 +1554,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scaled Average Open Price Per Company Per Year</a:t>
+              <a:t>Scaled Average Open Price By Year</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1407,16 +1592,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1432,7 +1623,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10276159230096238"/>
           <c:y val="5.5491329479768786E-2"/>
-          <c:w val="0.7529284776902887"/>
+          <c:w val="0.85656984053463892"/>
           <c:h val="0.89814814814814814"/>
         </c:manualLayout>
       </c:layout>
@@ -1455,13 +1646,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1533,13 +1753,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1611,13 +1860,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1689,13 +1967,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1767,13 +2077,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1838,8 +2180,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="370325264"/>
         <c:axId val="370324624"/>
       </c:barChart>
@@ -1856,11 +2198,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1874,14 +2216,13 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1905,9 +2246,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1933,14 +2274,13 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1959,7 +2299,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1975,14 +2315,13 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2001,17 +2340,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2020,7 +2370,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2054,21 +2407,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Volume Per Company Per Year</a:t>
+              <a:t>Yearly Total Stock Volume</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2086,16 +2445,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2124,13 +2489,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2202,13 +2596,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2280,13 +2703,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2358,13 +2810,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2436,13 +2920,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2507,8 +3023,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="370325904"/>
         <c:axId val="572684240"/>
       </c:barChart>
@@ -2525,11 +3041,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2543,14 +3059,13 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2574,9 +3089,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2602,14 +3117,13 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2628,7 +3142,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2644,14 +3158,13 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2670,17 +3183,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2689,7 +3213,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2703,13 +3230,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2743,13 +3267,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2783,13 +3304,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2823,35 +3341,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2859,26 +3375,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2887,9 +3411,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2908,14 +3431,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2924,35 +3439,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2964,30 +3479,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3003,21 +3519,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3027,20 +3540,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3051,17 +3564,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3070,14 +3583,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3089,28 +3601,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3122,111 +3628,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3238,12 +3751,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3252,14 +3772,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3268,9 +3787,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3280,7 +3798,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3288,9 +3806,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3301,9 +3819,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3313,48 +3830,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3362,26 +3871,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3390,9 +3907,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3411,14 +3927,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3427,35 +3935,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3467,30 +3975,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3506,21 +4015,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3530,20 +4036,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3554,17 +4060,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3573,14 +4079,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3592,28 +4097,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3625,111 +4124,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3741,12 +4247,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3755,14 +4268,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3771,9 +4283,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3783,7 +4294,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3791,9 +4302,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3804,9 +4315,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3816,48 +4326,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3865,26 +4367,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3893,9 +4403,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3914,14 +4423,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3930,35 +4431,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3970,30 +4471,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4009,21 +4511,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4033,20 +4532,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4057,17 +4556,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4076,14 +4575,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4095,28 +4593,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4128,111 +4620,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4244,12 +4743,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4258,14 +4764,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4274,9 +4779,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4286,7 +4790,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4294,9 +4798,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4307,9 +4811,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4319,14 +4822,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4335,16 +4832,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4371,16 +4868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537844</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4409,16 +4906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551180</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4742,25 +5239,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4799,7 +5296,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4842,7 +5339,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4898,8 +5395,12 @@
         <f>(G6-$K$3)/$L$3</f>
         <v>-1.3619631759896227</v>
       </c>
+      <c r="R3">
+        <f>AVERAGE(M3:Q3)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4956,7 +5457,7 @@
         <v>-1.2458945666722463</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5013,7 +5514,7 @@
         <v>-1.5821899500444836</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5070,7 +5571,7 @@
         <v>-1.7743175618194456</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5628,7 @@
         <v>-1.5463039014385775</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5153,7 +5654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5179,7 +5680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5205,7 +5706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5231,7 +5732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5270,7 +5771,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5313,7 +5814,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5370,7 +5871,7 @@
         <v>1.0830193015163112</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5427,7 +5928,7 @@
         <v>1.3088427902798974</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5484,7 +5985,7 @@
         <v>1.0132584323055736</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -5541,7 +6042,7 @@
         <v>1.1248953953482141</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5598,7 +6099,7 @@
         <v>1.514884106827642</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5624,7 +6125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5650,7 +6151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5676,7 +6177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5702,7 +6203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -5728,7 +6229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5754,7 +6255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5780,7 +6281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -5806,7 +6307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -5832,7 +6333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5858,7 +6359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5884,7 +6385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5910,7 +6411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
